--- a/assets/data/Products.xlsx
+++ b/assets/data/Products.xlsx
@@ -92,9 +92,6 @@
     <t>Joint Genesis.png</t>
   </si>
   <si>
-    <t>MITOLYN.png</t>
-  </si>
-  <si>
     <t>NITRIC BOOST.jpg</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>https://1c0c6mkcwrsz1tf4t20kvaww5f.hop.clickbank.net</t>
+  </si>
+  <si>
+    <t>mitolyn.png</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -782,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>3.5</v>
@@ -838,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -928,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -954,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -969,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Products.xlsx
+++ b/assets/data/Products.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/Products.xlsx
+++ b/assets/data/Products.xlsx
@@ -167,7 +167,7 @@
     <t>https://1c0c6mkcwrsz1tf4t20kvaww5f.hop.clickbank.net</t>
   </si>
   <si>
-    <t>mitolyn.png</t>
+    <t>MITOLYN.png</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/Products.xlsx
+++ b/assets/data/Products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Show</t>
   </si>
@@ -86,9 +86,6 @@
     <t>https://7afb1rklqmyv5xdkvpp8c97x3c.hop.clickbank.net</t>
   </si>
   <si>
-    <t>E:\DataHeardz Store\assets\dataheardz_Life Images\Audifort.png</t>
-  </si>
-  <si>
     <t>Joint Genesis.png</t>
   </si>
   <si>
@@ -168,6 +165,18 @@
   </si>
   <si>
     <t>MITOLYN.png</t>
+  </si>
+  <si>
+    <t>Audifort.png</t>
+  </si>
+  <si>
+    <t>E:\DataHeardz Store\assets\dataheardz_Life Images\ignitra.png</t>
+  </si>
+  <si>
+    <t>Ignitra</t>
+  </si>
+  <si>
+    <t>https://17046gpgpkrt4p0cvfji5y3man.hop.clickbank.net</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +237,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -259,6 +276,7 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,26 +710,26 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>147</v>
+        <v>600</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5">
-        <v>49</v>
+        <v>200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>185.48</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -721,27 +739,27 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="G3" s="1">
-        <v>199.95</v>
+        <v>790</v>
       </c>
       <c r="H3" s="1">
-        <v>149.94999999999999</v>
+        <v>158</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -752,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>50</v>
@@ -761,17 +779,17 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>600</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="4">
-        <v>185.48</v>
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>49</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -782,26 +800,26 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F5" s="1">
-        <v>700</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1">
-        <v>60.25</v>
-      </c>
-      <c r="H5" s="5">
-        <v>48.96</v>
+        <v>199.95</v>
+      </c>
+      <c r="H5" s="1">
+        <v>149.94999999999999</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -809,56 +827,56 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>325</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60.25</v>
+      </c>
       <c r="H6" s="5">
-        <v>128.82</v>
+        <v>48.96</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="1">
-        <v>658</v>
-      </c>
-      <c r="G7" s="1">
-        <v>205</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="5">
-        <v>147.72</v>
+        <v>128.82</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -868,26 +886,26 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>143</v>
+        <v>658</v>
       </c>
       <c r="G8" s="1">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="H8" s="5">
-        <v>144.61000000000001</v>
+        <v>147.72</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -898,52 +916,56 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>143</v>
+      </c>
+      <c r="G9" s="1">
+        <v>170</v>
+      </c>
+      <c r="H9" s="5">
+        <v>144.61000000000001</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>365</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5">
-        <v>52.13</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>200</v>
+        <v>365</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
       </c>
       <c r="H10" s="5">
-        <v>100</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
+        <v>52.13</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -954,22 +976,48 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>296</v>
+      </c>
+      <c r="H12" s="5">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>296</v>
-      </c>
-      <c r="H11" s="5">
-        <v>50</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
